--- a/data/d_SCO_UK_Testing.xlsx
+++ b/data/d_SCO_UK_Testing.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\githome\TTS-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770C0EA5-0DDE-424D-B14F-BC92F3EFD775}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5984DE-23B7-429C-9612-0FD3D6355987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="525" windowWidth="12375" windowHeight="13575" xr2:uid="{7BDE69FA-6CD4-4108-9B4E-C7231515352E}"/>
+    <workbookView xWindow="3045" yWindow="735" windowWidth="19875" windowHeight="11835" xr2:uid="{7BDE69FA-6CD4-4108-9B4E-C7231515352E}"/>
   </bookViews>
   <sheets>
     <sheet name="d_SCO_UK_Testing" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Order2" hidden="1">255</definedName>
@@ -149,7 +146,7 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +218,18 @@
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -395,7 +404,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,6 +590,19 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="13" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -598,29 +620,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="d_cases_by_hb"/>
-      <sheetName val="d_SCO_UK_Testing"/>
-      <sheetName val="MK DATA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="S3" t="str">
-            <v>NHS Ayrshire &amp; Arran</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -925,8 +924,8 @@
   </sheetPr>
   <dimension ref="A1:AF285"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L247" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD285" sqref="AD285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21228,7 +21227,7 @@
         <v>279606</v>
       </c>
       <c r="C224" s="17">
-        <f t="shared" ref="C224:C282" si="57">B224/660</f>
+        <f t="shared" ref="C224:C284" si="57">B224/660</f>
         <v>423.64545454545453</v>
       </c>
       <c r="D224" s="17">
@@ -21275,7 +21274,7 @@
         <v>5.5838079739625714E-2</v>
       </c>
       <c r="Q224" s="41">
-        <f t="shared" ref="Q224:Q284" si="59">G224-G217</f>
+        <f t="shared" ref="Q224:Q285" si="59">G224-G217</f>
         <v>47820</v>
       </c>
       <c r="R224" s="41">
@@ -21913,7 +21912,7 @@
         <v>6.8386204170372569E-2</v>
       </c>
       <c r="V230" s="43">
-        <f t="shared" ref="V230:V284" si="62">S230/5463.3</f>
+        <f t="shared" ref="V230:V285" si="62">S230/5463.3</f>
         <v>24.078304321563888</v>
       </c>
       <c r="W230" s="31">
@@ -22404,7 +22403,7 @@
         <v>1947</v>
       </c>
       <c r="P235" s="82">
-        <f t="shared" ref="P235:P284" si="63">O235/N235</f>
+        <f t="shared" ref="P235:P285" si="63">O235/N235</f>
         <v>9.7345132743362831E-2</v>
       </c>
       <c r="Q235" s="41">
@@ -23043,7 +23042,7 @@
         <v>11150</v>
       </c>
       <c r="U241" s="85">
-        <f t="shared" ref="U241:U284" si="64">T241/S241</f>
+        <f t="shared" ref="U241:U285" si="64">T241/S241</f>
         <v>8.5214028598286543E-2</v>
       </c>
       <c r="V241" s="43">
@@ -24909,7 +24908,7 @@
         <v>1115.2857142857142</v>
       </c>
       <c r="X259" s="44">
-        <f t="shared" ref="X259:X284" si="67">H259/(G259-G258)</f>
+        <f t="shared" ref="X259:X285" si="67">H259/(G259-G258)</f>
         <v>0.16614652994501411</v>
       </c>
       <c r="Y259" s="33">
@@ -25662,7 +25661,7 @@
         <v>422.78939393939396</v>
       </c>
       <c r="D267" s="17">
-        <f t="shared" ref="D267:D282" si="74">SUM(C261:C267)/7</f>
+        <f t="shared" ref="D267:D284" si="74">SUM(C261:C267)/7</f>
         <v>501.56298701298692</v>
       </c>
       <c r="E267" s="58">
@@ -26620,7 +26619,7 @@
         <v>1717290</v>
       </c>
       <c r="N276" s="81">
-        <f t="shared" ref="N276:N284" si="75">J276+L276</f>
+        <f t="shared" ref="N276:N285" si="75">J276+L276</f>
         <v>13039</v>
       </c>
       <c r="O276" s="81">
@@ -27178,19 +27177,19 @@
         <v>0.12470907680372381</v>
       </c>
       <c r="Y281" s="33">
-        <f t="shared" ref="Y281:Y284" si="78">SUM(N275:N281)/7</f>
+        <f t="shared" ref="Y281:Y285" si="78">SUM(N275:N281)/7</f>
         <v>18931.142857142859</v>
       </c>
       <c r="Z281" s="34">
-        <f t="shared" ref="Z281:Z284" si="79">N281/54.633</f>
+        <f t="shared" ref="Z281:Z285" si="79">N281/54.633</f>
         <v>270.71550161990007</v>
       </c>
       <c r="AA281" s="35">
-        <f t="shared" ref="AA281:AA284" si="80">SUM(Z275:Z281)/7</f>
+        <f t="shared" ref="AA281:AA285" si="80">SUM(Z275:Z281)/7</f>
         <v>346.51479613315865</v>
       </c>
       <c r="AB281" s="34">
-        <f t="shared" ref="AB281:AB284" si="81">SUM(I275:I281)*100/7</f>
+        <f t="shared" ref="AB281:AB285" si="81">SUM(I275:I281)*100/7</f>
         <v>12.755639596518686</v>
       </c>
     </row>
@@ -27297,9 +27296,20 @@
         <v>12.612361533928302</v>
       </c>
     </row>
-    <row r="283" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="84">
         <v>44173</v>
+      </c>
+      <c r="B283">
+        <v>294966</v>
+      </c>
+      <c r="C283" s="17">
+        <f t="shared" si="57"/>
+        <v>446.91818181818184</v>
+      </c>
+      <c r="D283" s="17">
+        <f t="shared" si="74"/>
+        <v>489.58549783549785</v>
       </c>
       <c r="E283" s="58">
         <v>1131614</v>
@@ -27389,9 +27399,20 @@
         <v>12.028789062391072</v>
       </c>
     </row>
-    <row r="284" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="84">
         <v>44174</v>
+      </c>
+      <c r="B284">
+        <v>369586</v>
+      </c>
+      <c r="C284" s="17">
+        <f t="shared" si="57"/>
+        <v>559.9787878787879</v>
+      </c>
+      <c r="D284" s="17">
+        <f t="shared" si="74"/>
+        <v>493.17770562770562</v>
       </c>
       <c r="E284" s="58">
         <v>1137207</v>
@@ -27437,11 +27458,11 @@
         <v>45310</v>
       </c>
       <c r="R284" s="41">
-        <f t="shared" ref="R284" si="82">SUM(H278:H284)</f>
+        <f t="shared" ref="R284:R285" si="82">SUM(H278:H284)</f>
         <v>5610</v>
       </c>
       <c r="S284" s="38">
-        <f t="shared" ref="S284:T284" si="83">SUM(N278:N284)</f>
+        <f t="shared" ref="S284:T285" si="83">SUM(N278:N284)</f>
         <v>137604</v>
       </c>
       <c r="T284" s="38">
@@ -27457,7 +27478,7 @@
         <v>25.18697490527703</v>
       </c>
       <c r="W284" s="31">
-        <f t="shared" ref="W284" si="84">SUM(H278:H284)/7</f>
+        <f t="shared" ref="W284:W285" si="84">SUM(H278:H284)/7</f>
         <v>801.42857142857144</v>
       </c>
       <c r="X284" s="44">
@@ -27482,7 +27503,96 @@
       </c>
     </row>
     <row r="285" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="G285" s="58"/>
+      <c r="A285" s="84">
+        <v>44175</v>
+      </c>
+      <c r="E285" s="97">
+        <v>1141754</v>
+      </c>
+      <c r="F285" s="97">
+        <v>103305</v>
+      </c>
+      <c r="G285" s="98">
+        <v>1245059</v>
+      </c>
+      <c r="H285" s="97">
+        <v>933</v>
+      </c>
+      <c r="I285" s="99">
+        <f>H285/(G285-G284)</f>
+        <v>0.17025547445255473</v>
+      </c>
+      <c r="J285" s="97">
+        <v>9020</v>
+      </c>
+      <c r="K285" s="98">
+        <v>1135238</v>
+      </c>
+      <c r="L285" s="100">
+        <v>14478</v>
+      </c>
+      <c r="M285" s="101">
+        <v>1833303</v>
+      </c>
+      <c r="N285" s="102">
+        <f t="shared" si="75"/>
+        <v>23498</v>
+      </c>
+      <c r="O285" s="102">
+        <v>1097</v>
+      </c>
+      <c r="P285" s="103">
+        <f t="shared" si="63"/>
+        <v>4.6684824240360884E-2</v>
+      </c>
+      <c r="Q285" s="104">
+        <f t="shared" si="59"/>
+        <v>43479</v>
+      </c>
+      <c r="R285" s="104">
+        <f t="shared" si="82"/>
+        <v>5585</v>
+      </c>
+      <c r="S285" s="105">
+        <f t="shared" si="83"/>
+        <v>134869</v>
+      </c>
+      <c r="T285" s="105">
+        <f t="shared" si="83"/>
+        <v>6588</v>
+      </c>
+      <c r="U285" s="106">
+        <f t="shared" si="64"/>
+        <v>4.8847400069697261E-2</v>
+      </c>
+      <c r="V285" s="107">
+        <f t="shared" si="62"/>
+        <v>24.686361722768289</v>
+      </c>
+      <c r="W285" s="31">
+        <f t="shared" si="84"/>
+        <v>797.85714285714289</v>
+      </c>
+      <c r="X285" s="44">
+        <f t="shared" si="67"/>
+        <v>0.17025547445255473</v>
+      </c>
+      <c r="Y285" s="33">
+        <f t="shared" si="78"/>
+        <v>19267</v>
+      </c>
+      <c r="Z285" s="34">
+        <f t="shared" si="79"/>
+        <v>430.10634598136653</v>
+      </c>
+      <c r="AA285" s="35">
+        <f t="shared" si="80"/>
+        <v>352.66231032526127</v>
+      </c>
+      <c r="AB285" s="34">
+        <f t="shared" si="81"/>
+        <v>13.119942244294871</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
